--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosage.xlsx
@@ -145,10 +145,6 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
@@ -287,6 +283,10 @@
   </si>
   <si>
     <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>.text</t>
@@ -1898,10 +1898,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1923,25 +1923,25 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1992,22 +1992,22 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>38</v>
@@ -2015,14 +2015,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -2041,16 +2041,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2088,19 +2088,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -2112,10 +2112,10 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>38</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>38</v>
@@ -2139,7 +2139,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -2151,13 +2151,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2208,7 +2208,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -2220,7 +2220,7 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>38</v>
@@ -2247,7 +2247,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2259,13 +2259,13 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2316,7 +2316,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
@@ -2328,7 +2328,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2339,14 +2339,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2359,25 +2359,25 @@
         <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="J6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>38</v>
@@ -2426,7 +2426,7 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
@@ -2438,10 +2438,10 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>38</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2463,7 +2463,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -2472,22 +2472,22 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>38</v>
@@ -2536,19 +2536,19 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>87</v>
@@ -2573,19 +2573,19 @@
         <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>90</v>
@@ -2652,13 +2652,13 @@
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>87</v>
@@ -2692,7 +2692,7 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>96</v>
@@ -2766,7 +2766,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>87</v>
@@ -2791,19 +2791,19 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>105</v>
@@ -2868,13 +2868,13 @@
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>87</v>
@@ -2899,7 +2899,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2978,19 +2978,19 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -3009,25 +3009,25 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3078,22 +3078,22 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3127,16 +3127,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3174,19 +3174,19 @@
         <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC13" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC13" t="s" s="2">
+      <c r="AD13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE13" t="s" s="2">
+      <c r="AF13" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3198,10 +3198,10 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3229,25 +3229,25 @@
         <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3296,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3308,10 +3308,10 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -3342,7 +3342,7 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>118</v>
@@ -3416,7 +3416,7 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>123</v>
@@ -3441,7 +3441,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3450,7 +3450,7 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>125</v>
@@ -3518,7 +3518,7 @@
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
@@ -3549,25 +3549,25 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3618,22 +3618,22 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>38</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3667,16 +3667,16 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3714,19 +3714,19 @@
         <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3738,10 +3738,10 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3763,7 +3763,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3772,7 +3772,7 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>135</v>
@@ -3827,7 +3827,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>139</v>
@@ -3836,13 +3836,13 @@
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>140</v>
@@ -3869,7 +3869,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3878,7 +3878,7 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>143</v>
@@ -3944,13 +3944,13 @@
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>140</v>
@@ -3975,25 +3975,25 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4044,22 +4044,22 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4093,16 +4093,16 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4140,19 +4140,19 @@
         <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC22" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC22" t="s" s="2">
+      <c r="AD22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4164,10 +4164,10 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -4189,7 +4189,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4198,7 +4198,7 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>150</v>
@@ -4268,13 +4268,13 @@
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>155</v>
@@ -4299,16 +4299,16 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>159</v>
@@ -4378,13 +4378,13 @@
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>168</v>
@@ -4409,19 +4409,19 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>172</v>
@@ -4486,13 +4486,13 @@
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>177</v>
@@ -4517,7 +4517,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4526,7 +4526,7 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>181</v>
@@ -4594,13 +4594,13 @@
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>188</v>
@@ -4625,7 +4625,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4634,7 +4634,7 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>159</v>
@@ -4704,13 +4704,13 @@
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>197</v>
@@ -4735,7 +4735,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4744,7 +4744,7 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>199</v>
@@ -4814,13 +4814,13 @@
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>205</v>
@@ -4845,7 +4845,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4854,7 +4854,7 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>199</v>
@@ -4922,13 +4922,13 @@
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>205</v>
@@ -4953,7 +4953,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4962,7 +4962,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>150</v>
@@ -5032,13 +5032,13 @@
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>217</v>
@@ -5063,7 +5063,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5072,7 +5072,7 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>150</v>
@@ -5142,13 +5142,13 @@
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>217</v>
@@ -5173,7 +5173,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5182,7 +5182,7 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>159</v>
@@ -5250,13 +5250,13 @@
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>228</v>
@@ -5281,7 +5281,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5290,7 +5290,7 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>199</v>
@@ -5360,13 +5360,13 @@
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>217</v>
@@ -5391,7 +5391,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5400,7 +5400,7 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>199</v>
@@ -5468,13 +5468,13 @@
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>217</v>
@@ -5499,7 +5499,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5508,7 +5508,7 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>150</v>
@@ -5576,13 +5576,13 @@
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>217</v>
@@ -5607,7 +5607,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5616,7 +5616,7 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>150</v>
@@ -5684,13 +5684,13 @@
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>217</v>
@@ -5715,7 +5715,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5724,7 +5724,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>159</v>
@@ -5792,13 +5792,13 @@
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>228</v>
@@ -5832,7 +5832,7 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>159</v>
@@ -5904,10 +5904,10 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
@@ -5938,7 +5938,7 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>259</v>
@@ -6012,10 +6012,10 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>
@@ -6046,7 +6046,7 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>159</v>
@@ -6122,7 +6122,7 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>272</v>
@@ -6147,7 +6147,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6156,7 +6156,7 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>274</v>
@@ -6224,13 +6224,13 @@
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>278</v>
@@ -6255,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6264,7 +6264,7 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>96</v>
@@ -6330,13 +6330,13 @@
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>285</v>
@@ -6361,7 +6361,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6370,7 +6370,7 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>287</v>
@@ -6438,13 +6438,13 @@
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>291</v>
@@ -6469,7 +6469,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6478,7 +6478,7 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>96</v>
@@ -6546,13 +6546,13 @@
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>299</v>
@@ -6577,7 +6577,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6586,7 +6586,7 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>96</v>
@@ -6654,13 +6654,13 @@
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>306</v>
@@ -6685,7 +6685,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6694,7 +6694,7 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>96</v>
@@ -6764,13 +6764,13 @@
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>315</v>
@@ -6795,25 +6795,25 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6864,22 +6864,22 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>38</v>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6913,16 +6913,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6960,19 +6960,19 @@
         <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC48" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC48" t="s" s="2">
+      <c r="AD48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -6984,10 +6984,10 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>38</v>
@@ -7018,7 +7018,7 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>320</v>
@@ -7077,7 +7077,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>326</v>
@@ -7092,7 +7092,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>327</v>
@@ -7119,7 +7119,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7128,7 +7128,7 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>320</v>
@@ -7202,7 +7202,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>327</v>
@@ -7227,25 +7227,25 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7296,22 +7296,22 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7345,16 +7345,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7392,19 +7392,19 @@
         <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC52" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC52" t="s" s="2">
+      <c r="AD52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7416,10 +7416,10 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
@@ -7438,10 +7438,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7450,7 +7450,7 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>181</v>
@@ -7520,13 +7520,13 @@
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>348</v>
@@ -7551,19 +7551,19 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>352</v>
@@ -7628,13 +7628,13 @@
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>356</v>
@@ -7659,7 +7659,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -7668,7 +7668,7 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>159</v>
@@ -7736,13 +7736,13 @@
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>364</v>
@@ -7767,19 +7767,19 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>368</v>
@@ -7844,13 +7844,13 @@
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>372</v>
@@ -7875,7 +7875,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -7884,7 +7884,7 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>287</v>
@@ -7954,13 +7954,13 @@
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>381</v>
@@ -7987,7 +7987,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -7996,7 +7996,7 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>320</v>
@@ -8070,7 +8070,7 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>327</v>
@@ -8095,25 +8095,25 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8164,22 +8164,22 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>38</v>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8213,16 +8213,16 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8260,19 +8260,19 @@
         <v>38</v>
       </c>
       <c r="AB60" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC60" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC60" t="s" s="2">
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE60" t="s" s="2">
+      <c r="AF60" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8284,10 +8284,10 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>38</v>
@@ -8306,10 +8306,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8318,7 +8318,7 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>181</v>
@@ -8388,13 +8388,13 @@
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>348</v>
@@ -8419,19 +8419,19 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>352</v>
@@ -8496,13 +8496,13 @@
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>356</v>
@@ -8527,7 +8527,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8536,7 +8536,7 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>159</v>
@@ -8604,13 +8604,13 @@
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>364</v>
@@ -8635,19 +8635,19 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>368</v>
@@ -8712,13 +8712,13 @@
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>372</v>
@@ -8743,7 +8743,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -8752,7 +8752,7 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>287</v>
@@ -8822,13 +8822,13 @@
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>381</v>
@@ -8853,19 +8853,19 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>90</v>
@@ -8932,13 +8932,13 @@
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>398</v>
@@ -8972,7 +8972,7 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>125</v>
@@ -9044,7 +9044,7 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -9069,25 +9069,25 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9138,22 +9138,22 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>38</v>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9187,16 +9187,16 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9234,19 +9234,19 @@
         <v>38</v>
       </c>
       <c r="AB69" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC69" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC69" t="s" s="2">
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE69" t="s" s="2">
+      <c r="AF69" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9258,10 +9258,10 @@
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>38</v>
@@ -9283,7 +9283,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -9292,7 +9292,7 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>96</v>
@@ -9360,13 +9360,13 @@
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -9391,7 +9391,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9470,7 +9470,7 @@
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>417</v>
@@ -9501,7 +9501,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -9510,7 +9510,7 @@
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>422</v>
@@ -9578,13 +9578,13 @@
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>428</v>
@@ -9611,7 +9611,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -9690,7 +9690,7 @@
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>417</v>
@@ -9702,7 +9702,7 @@
         <v>436</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
@@ -9723,7 +9723,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -9802,7 +9802,7 @@
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>417</v>
@@ -9835,7 +9835,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -9914,7 +9914,7 @@
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>417</v>
@@ -9945,7 +9945,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>38</v>
@@ -10024,7 +10024,7 @@
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>417</v>
@@ -10036,7 +10036,7 @@
         <v>436</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
@@ -10055,7 +10055,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -10134,7 +10134,7 @@
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>417</v>
@@ -10165,7 +10165,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -10244,7 +10244,7 @@
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>417</v>
